--- a/Performance Marketing-Dashboard.xlsx
+++ b/Performance Marketing-Dashboard.xlsx
@@ -5,21 +5,21 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analytics - projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46951547-AD2B-4B2A-9CAD-BD011C750155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC36B1C-3667-431E-ABE7-22CFB3584594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Countries - Revenues" sheetId="2" r:id="rId2"/>
-    <sheet name="Acquisition Channels - Installs" sheetId="3" r:id="rId3"/>
-    <sheet name="Acquisition Channel - Installs%" sheetId="5" r:id="rId4"/>
-    <sheet name="Costs by Channel" sheetId="7" r:id="rId5"/>
-    <sheet name="ROI" sheetId="8" r:id="rId6"/>
-    <sheet name="Country - C+R+I" sheetId="9" r:id="rId7"/>
+    <sheet name="Data" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Countries - Revenues" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Acquisition Channels - Installs" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Acquisition Channel - Installs%" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Costs by Channel" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="ROI" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Country - C+R+I" sheetId="9" state="hidden" r:id="rId7"/>
     <sheet name="Dashboard" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -686,7 +686,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Performance Marketing-Dashboard final.xlsx]Acquisition Channels - Installs!PivotTable2</c:name>
+    <c:name>[Performance Marketing-Dashboard.xlsx]Acquisition Channels - Installs!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1120,7 +1120,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Performance Marketing-Dashboard final.xlsx]Countries - Revenues!PivotTable1</c:name>
+    <c:name>[Performance Marketing-Dashboard.xlsx]Countries - Revenues!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1964,7 +1964,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Performance Marketing-Dashboard final.xlsx]Acquisition Channel - Installs%!PivotTable3</c:name>
+    <c:name>[Performance Marketing-Dashboard.xlsx]Acquisition Channel - Installs%!PivotTable3</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -27595,7 +27595,7 @@
   <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27982,7 +27982,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28061,7 +28061,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28136,7 +28136,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28199,7 +28199,7 @@
   <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28397,7 +28397,7 @@
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Performance Marketing-Dashboard.xlsx
+++ b/Performance Marketing-Dashboard.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analytics - projects\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC36B1C-3667-431E-ABE7-22CFB3584594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F00D52-C75B-4840-A184-8901C5293349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Countries - Revenues" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Acquisition Channels - Installs" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Acquisition Channel - Installs%" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="Costs by Channel" sheetId="7" state="hidden" r:id="rId5"/>
-    <sheet name="ROI" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="Country - C+R+I" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="Data" sheetId="1" state="veryHidden" r:id="rId1"/>
+    <sheet name="Countries - Revenues" sheetId="2" state="veryHidden" r:id="rId2"/>
+    <sheet name="Acquisition Channels - Installs" sheetId="3" state="veryHidden" r:id="rId3"/>
+    <sheet name="Acquisition Channel - Installs%" sheetId="5" state="veryHidden" r:id="rId4"/>
+    <sheet name="Costs by Channel" sheetId="7" state="veryHidden" r:id="rId5"/>
+    <sheet name="ROI" sheetId="8" state="veryHidden" r:id="rId6"/>
+    <sheet name="Country - C+R+I" sheetId="9" state="veryHidden" r:id="rId7"/>
     <sheet name="Dashboard" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -17040,6 +17040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27592,10 +27593,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27979,10 +27981,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28058,10 +28061,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28133,10 +28137,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28196,10 +28201,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28394,10 +28400,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A3:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28493,6 +28500,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
